--- a/Input.xlsx
+++ b/Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH for Matrix Shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Saves\PyTemp\GPHH-Matrix-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69320645-83FC-453E-AA45-17958F0FF66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F29269-5777-44C4-A660-B5B1C211D020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22515" yWindow="1845" windowWidth="23025" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="630" windowWidth="17235" windowHeight="14610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,7 +529,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -545,9 +545,8 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -564,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -581,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -598,7 +597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -615,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -632,7 +631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -649,7 +648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -666,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -683,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -700,7 +699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -717,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -734,7 +733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -751,7 +750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -768,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -785,7 +784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -898,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776CB3E9-940E-4B3A-AEBA-B9FE06DA2AEC}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1061,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
